--- a/biology/Zoologie/Camallanida/Camallanida.xlsx
+++ b/biology/Zoologie/Camallanida/Camallanida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Camallanida sont un ordre de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et mènant une vie libre ou parasitaire). Selon l'IRMNG  (23 mai 2021)[1], Camallanida est synonyme de Spirurida.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Camallanida sont un ordre de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et mènant une vie libre ou parasitaire). Selon l'IRMNG  (23 mai 2021), Camallanida est synonyme de Spirurida.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (23 mai 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (23 mai 2021) :
 Camallanidae
 Micropleudidae
 Philometridae</t>
